--- a/report/ml_perform_crossval2_agg_2022-11-19.xlsx
+++ b/report/ml_perform_crossval2_agg_2022-11-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4CECFD-4A62-45D6-8B92-E04390ED7031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7AE6D6-8486-490A-8C6D-1690B55B80FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2868" yWindow="1428" windowWidth="16836" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId4"/>
+    <pivotCache cacheId="52" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFD67BFB-F459-492B-B357-D66C516C5788}" name="PivotTable9" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFD67BFB-F459-492B-B357-D66C516C5788}" name="PivotTable9" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -431,7 +431,7 @@
     <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -439,7 +439,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -471,7 +471,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -479,7 +479,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D582243-9189-4EE2-A171-FCDFF75277DF}" name="PivotTable12" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D582243-9189-4EE2-A171-FCDFF75277DF}" name="PivotTable12" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -574,7 +574,7 @@
     <dataField name="Average of avg_mse" fld="6" subtotal="average" baseField="1" baseItem="2"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -582,7 +582,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -614,7 +614,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -622,7 +622,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -971,7 +971,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1093,7 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:B8">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1110,9 +1110,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1122,9 +1122,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1302,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>

--- a/report/ml_perform_crossval2_agg_2022-11-19.xlsx
+++ b/report/ml_perform_crossval2_agg_2022-11-19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7AE6D6-8486-490A-8C6D-1690B55B80FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA36C3E7-E8FF-4D9D-A15A-97BC196B8A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="1428" windowWidth="16836" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3216" yWindow="1776" windowWidth="13824" windowHeight="7176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="52" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -111,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -156,11 +162,107 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -362,7 +464,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFD67BFB-F459-492B-B357-D66C516C5788}" name="PivotTable9" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BFD67BFB-F459-492B-B357-D66C516C5788}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -430,8 +532,35 @@
   <dataFields count="1">
     <dataField name="Average of avg_mae" fld="3" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
+  <formats count="4">
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="0" selected="0"/>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="5">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -439,7 +568,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -451,7 +580,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -471,7 +600,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="8">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -479,7 +608,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -505,7 +634,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D582243-9189-4EE2-A171-FCDFF75277DF}" name="PivotTable12" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D582243-9189-4EE2-A171-FCDFF75277DF}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -574,7 +703,7 @@
     <dataField name="Average of avg_mse" fld="6" subtotal="average" baseField="1" baseItem="2"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -582,7 +711,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -614,7 +743,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -622,7 +751,7 @@
               <x v="0"/>
             </reference>
             <reference field="0" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="4">
               <x v="0"/>
@@ -968,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B55C0B9-B623-424B-9EF8-924BEC683D27}">
-  <dimension ref="A3:E9"/>
+  <dimension ref="A3:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,7 +1110,7 @@
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -989,92 +1118,140 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <v>0.12341885460920041</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="8">
         <v>0.12446787944573399</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <v>0.1211167847583049</v>
       </c>
       <c r="E5" s="4">
         <v>0.12300117293774643</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <v>0.1226452206081371</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>0.17142352835495861</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <v>0.12244470471122421</v>
       </c>
       <c r="E6" s="4">
         <v>0.13883781789143998</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.12341885460920041</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.12446787944573399</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.1211167847583049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="8">
         <v>0.12288681793299989</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>0.1241407382423098</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <v>0.12376736217778581</v>
       </c>
       <c r="E7" s="4">
         <v>0.12359830611769851</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.1226452206081371</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.17142352835495861</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.12244470471122421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="8">
         <v>0.1221757073720285</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>0.12344721458960729</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>0.12416986541799931</v>
       </c>
       <c r="E8" s="4">
         <v>0.12326426245987837</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.12288681793299989</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.1241407382423098</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.12376736217778581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1090,9 +1267,33 @@
       <c r="E9" s="4">
         <v>0.12717538985169083</v>
       </c>
+      <c r="I9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.1221757073720285</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.12344721458960729</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.12416986541799931</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1104,7 +1305,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C5:C8">
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1116,7 +1341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D5:D8">
+  <conditionalFormatting sqref="L6:L9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1129,6 +1354,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1137,7 +1363,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A4" sqref="A4:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,6 +1521,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1302,13 +1529,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
